--- a/src/main/resources/static/res/order_template.xlsx
+++ b/src/main/resources/static/res/order_template.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\15158\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\15158\Desktop\学习\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B83DADE-46FE-4166-A783-E765FD0AD0A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7278D028-D0A1-41F3-B347-EC1587F01B86}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -93,8 +93,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -378,20 +379,21 @@
   <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.125" customWidth="1"/>
+    <col min="1" max="1" width="14.125" style="1" customWidth="1"/>
     <col min="2" max="2" width="17.5" customWidth="1"/>
     <col min="3" max="3" width="12.75" customWidth="1"/>
     <col min="4" max="4" width="14.875" customWidth="1"/>
     <col min="5" max="5" width="17" customWidth="1"/>
+    <col min="6" max="6" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -406,7 +408,7 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" t="s">

--- a/src/main/resources/static/res/order_template.xlsx
+++ b/src/main/resources/static/res/order_template.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\15158\Desktop\学习\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\install\Java\WorkTask\IDEA\lixing\src\main\resources\static\res\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7278D028-D0A1-41F3-B347-EC1587F01B86}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC58BF4E-A14A-485D-940C-2D83EEA447E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,9 +27,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
-    <t>订单日期</t>
-  </si>
-  <si>
     <t>配送单位名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -50,6 +47,10 @@
   </si>
   <si>
     <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单日期(格式：20201010)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -379,40 +380,41 @@
   <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.5" customWidth="1"/>
-    <col min="3" max="3" width="12.75" customWidth="1"/>
-    <col min="4" max="4" width="14.875" customWidth="1"/>
+    <col min="1" max="1" width="29" style="1" customWidth="1"/>
+    <col min="2" max="2" width="29.875" customWidth="1"/>
+    <col min="3" max="3" width="17.875" customWidth="1"/>
+    <col min="4" max="4" width="15.25" customWidth="1"/>
     <col min="5" max="5" width="17" customWidth="1"/>
     <col min="6" max="6" width="9" style="1"/>
+    <col min="7" max="7" width="55.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/static/res/order_template.xlsx
+++ b/src/main/resources/static/res/order_template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\install\Java\WorkTask\IDEA\lixing\src\main\resources\static\res\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspaces\myself\lixing\src\main\resources\static\res\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC58BF4E-A14A-485D-940C-2D83EEA447E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{477F02D8-9536-4EAF-A52F-62EF52F76540}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>配送单位名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -50,7 +50,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>订单日期(格式：20201010)</t>
+    <t>订单日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>说明：1、订单日期格式（8位数字格式，比如2020年10月1号，则表示为20201001）2、配送单位名称、客户名称、价目名称、品种名称必须与真实名称完全一致</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -94,9 +98,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -377,17 +383,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="29" style="1" customWidth="1"/>
     <col min="2" max="2" width="29.875" customWidth="1"/>
-    <col min="3" max="3" width="17.875" customWidth="1"/>
+    <col min="3" max="3" width="22" customWidth="1"/>
     <col min="4" max="4" width="15.25" customWidth="1"/>
     <col min="5" max="5" width="17" customWidth="1"/>
     <col min="6" max="6" width="9" style="1"/>
@@ -395,29 +401,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G2" t="s">
         <v>5</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:G1"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
